--- a/natmiOut/OldD2/LR-pairs_lrc2p/Il15-Il15ra.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Il15-Il15ra.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.20821661142095</v>
+        <v>6.223902</v>
       </c>
       <c r="H2">
-        <v>6.20821661142095</v>
+        <v>12.447804</v>
       </c>
       <c r="I2">
-        <v>0.1647585933783495</v>
+        <v>0.1573600023520094</v>
       </c>
       <c r="J2">
-        <v>0.1647585933783495</v>
+        <v>0.111347698879666</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.73653630557478</v>
+        <v>4.832948</v>
       </c>
       <c r="N2">
-        <v>4.73653630557478</v>
+        <v>9.665896</v>
       </c>
       <c r="O2">
-        <v>0.1671896058366691</v>
+        <v>0.1595776081975808</v>
       </c>
       <c r="P2">
-        <v>0.1671896058366691</v>
+        <v>0.1202728907524544</v>
       </c>
       <c r="Q2">
-        <v>29.40544337286776</v>
+        <v>30.079794723096</v>
       </c>
       <c r="R2">
-        <v>29.40544337286776</v>
+        <v>120.319178892384</v>
       </c>
       <c r="S2">
-        <v>0.02754592428513029</v>
+        <v>0.02511113280129936</v>
       </c>
       <c r="T2">
-        <v>0.02754592428513029</v>
+        <v>0.01339210962289126</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.20821661142095</v>
+        <v>6.223902</v>
       </c>
       <c r="H3">
-        <v>6.20821661142095</v>
+        <v>12.447804</v>
       </c>
       <c r="I3">
-        <v>0.1647585933783495</v>
+        <v>0.1573600023520094</v>
       </c>
       <c r="J3">
-        <v>0.1647585933783495</v>
+        <v>0.111347698879666</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.828705801557881</v>
+        <v>9.312192333333334</v>
       </c>
       <c r="N3">
-        <v>8.828705801557881</v>
+        <v>27.936577</v>
       </c>
       <c r="O3">
-        <v>0.3116344408197785</v>
+        <v>0.3074763849371404</v>
       </c>
       <c r="P3">
-        <v>0.3116344408197785</v>
+        <v>0.3476152519661426</v>
       </c>
       <c r="Q3">
-        <v>54.81051801458015</v>
+        <v>57.958172487818</v>
       </c>
       <c r="R3">
-        <v>54.81051801458015</v>
+        <v>347.749034926908</v>
       </c>
       <c r="S3">
-        <v>0.0513444521177152</v>
+        <v>0.04838448465689577</v>
       </c>
       <c r="T3">
-        <v>0.0513444521177152</v>
+        <v>0.03870615840190527</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.20821661142095</v>
+        <v>6.223902</v>
       </c>
       <c r="H4">
-        <v>6.20821661142095</v>
+        <v>12.447804</v>
       </c>
       <c r="I4">
-        <v>0.1647585933783495</v>
+        <v>0.1573600023520094</v>
       </c>
       <c r="J4">
-        <v>0.1647585933783495</v>
+        <v>0.111347698879666</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.2969174752461</v>
+        <v>2.420762333333333</v>
       </c>
       <c r="N4">
-        <v>2.2969174752461</v>
+        <v>7.262287</v>
       </c>
       <c r="O4">
-        <v>0.08107627653434649</v>
+        <v>0.07993039924454561</v>
       </c>
       <c r="P4">
-        <v>0.08107627653434649</v>
+        <v>0.09036474745475948</v>
       </c>
       <c r="Q4">
-        <v>14.2597612248859</v>
+        <v>15.066587527958</v>
       </c>
       <c r="R4">
-        <v>14.2597612248859</v>
+        <v>90.399525167748</v>
       </c>
       <c r="S4">
-        <v>0.01335801327815301</v>
+        <v>0.01257784781311875</v>
       </c>
       <c r="T4">
-        <v>0.01335801327815301</v>
+        <v>0.01006190668892962</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.20821661142095</v>
+        <v>6.223902</v>
       </c>
       <c r="H5">
-        <v>6.20821661142095</v>
+        <v>12.447804</v>
       </c>
       <c r="I5">
-        <v>0.1647585933783495</v>
+        <v>0.1573600023520094</v>
       </c>
       <c r="J5">
-        <v>0.1647585933783495</v>
+        <v>0.111347698879666</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.95642863749525</v>
+        <v>2.988693333333333</v>
       </c>
       <c r="N5">
-        <v>2.95642863749525</v>
+        <v>8.96608</v>
       </c>
       <c r="O5">
-        <v>0.1043556106611728</v>
+        <v>0.09868273645182785</v>
       </c>
       <c r="P5">
-        <v>0.1043556106611728</v>
+        <v>0.111565069634286</v>
       </c>
       <c r="Q5">
-        <v>18.35414937777862</v>
+        <v>18.60133441472</v>
       </c>
       <c r="R5">
-        <v>18.35414937777862</v>
+        <v>111.60800648832</v>
       </c>
       <c r="S5">
-        <v>0.01719348362367353</v>
+        <v>0.01552871564016236</v>
       </c>
       <c r="T5">
-        <v>0.01719348362367353</v>
+        <v>0.01242251377912744</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.20821661142095</v>
+        <v>6.223902</v>
       </c>
       <c r="H6">
-        <v>6.20821661142095</v>
+        <v>12.447804</v>
       </c>
       <c r="I6">
-        <v>0.1647585933783495</v>
+        <v>0.1573600023520094</v>
       </c>
       <c r="J6">
-        <v>0.1647585933783495</v>
+        <v>0.111347698879666</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.84776526631231</v>
+        <v>5.072968666666666</v>
       </c>
       <c r="N6">
-        <v>4.84776526631231</v>
+        <v>15.218906</v>
       </c>
       <c r="O6">
-        <v>0.1711157503658355</v>
+        <v>0.1675027760050257</v>
       </c>
       <c r="P6">
-        <v>0.1711157503658355</v>
+        <v>0.1893690785323857</v>
       </c>
       <c r="Q6">
-        <v>30.09597685458959</v>
+        <v>31.573659830404</v>
       </c>
       <c r="R6">
-        <v>30.09597685458959</v>
+        <v>189.441958982424</v>
       </c>
       <c r="S6">
-        <v>0.02819279033515584</v>
+        <v>0.02635823722611896</v>
       </c>
       <c r="T6">
-        <v>0.02819279033515584</v>
+        <v>0.0210858111335439</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.20821661142095</v>
+        <v>6.223902</v>
       </c>
       <c r="H7">
-        <v>6.20821661142095</v>
+        <v>12.447804</v>
       </c>
       <c r="I7">
-        <v>0.1647585933783495</v>
+        <v>0.1573600023520094</v>
       </c>
       <c r="J7">
-        <v>0.1647585933783495</v>
+        <v>0.111347698879666</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.66397411923908</v>
+        <v>5.6583135</v>
       </c>
       <c r="N7">
-        <v>4.66397411923908</v>
+        <v>11.316627</v>
       </c>
       <c r="O7">
-        <v>0.1646283157821975</v>
+        <v>0.1868300951638797</v>
       </c>
       <c r="P7">
-        <v>0.1646283157821975</v>
+        <v>0.1408129616599719</v>
       </c>
       <c r="Q7">
-        <v>28.95496160229744</v>
+        <v>35.216788709277</v>
       </c>
       <c r="R7">
-        <v>28.95496160229744</v>
+        <v>140.867154837108</v>
       </c>
       <c r="S7">
-        <v>0.02712392973852159</v>
+        <v>0.02939958421441427</v>
       </c>
       <c r="T7">
-        <v>0.02712392973852159</v>
+        <v>0.0156791992532685</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.73469548922268</v>
+        <v>0.8282930000000001</v>
       </c>
       <c r="H8">
-        <v>0.73469548922268</v>
+        <v>2.484879</v>
       </c>
       <c r="I8">
-        <v>0.01949793361640478</v>
+        <v>0.02094187672430462</v>
       </c>
       <c r="J8">
-        <v>0.01949793361640478</v>
+        <v>0.02222766028806411</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.73653630557478</v>
+        <v>4.832948</v>
       </c>
       <c r="N8">
-        <v>4.73653630557478</v>
+        <v>9.665896</v>
       </c>
       <c r="O8">
-        <v>0.1671896058366691</v>
+        <v>0.1595776081975808</v>
       </c>
       <c r="P8">
-        <v>0.1671896058366691</v>
+        <v>0.1202728907524544</v>
       </c>
       <c r="Q8">
-        <v>3.479911858245248</v>
+        <v>4.003096997764001</v>
       </c>
       <c r="R8">
-        <v>3.479911858245248</v>
+        <v>24.018581986584</v>
       </c>
       <c r="S8">
-        <v>0.003259851835956255</v>
+        <v>0.00334185459883312</v>
       </c>
       <c r="T8">
-        <v>0.003259851835956255</v>
+        <v>0.002673384957509004</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.73469548922268</v>
+        <v>0.8282930000000001</v>
       </c>
       <c r="H9">
-        <v>0.73469548922268</v>
+        <v>2.484879</v>
       </c>
       <c r="I9">
-        <v>0.01949793361640478</v>
+        <v>0.02094187672430462</v>
       </c>
       <c r="J9">
-        <v>0.01949793361640478</v>
+        <v>0.02222766028806411</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.828705801557881</v>
+        <v>9.312192333333334</v>
       </c>
       <c r="N9">
-        <v>8.828705801557881</v>
+        <v>27.936577</v>
       </c>
       <c r="O9">
-        <v>0.3116344408197785</v>
+        <v>0.3074763849371404</v>
       </c>
       <c r="P9">
-        <v>0.3116344408197785</v>
+        <v>0.3476152519661426</v>
       </c>
       <c r="Q9">
-        <v>6.486410328078681</v>
+        <v>7.713223724353668</v>
       </c>
       <c r="R9">
-        <v>6.486410328078681</v>
+        <v>69.41901351918301</v>
       </c>
       <c r="S9">
-        <v>0.006076227639689465</v>
+        <v>0.006439132548988428</v>
       </c>
       <c r="T9">
-        <v>0.006076227639689465</v>
+        <v>0.007726673731653228</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.73469548922268</v>
+        <v>0.8282930000000001</v>
       </c>
       <c r="H10">
-        <v>0.73469548922268</v>
+        <v>2.484879</v>
       </c>
       <c r="I10">
-        <v>0.01949793361640478</v>
+        <v>0.02094187672430462</v>
       </c>
       <c r="J10">
-        <v>0.01949793361640478</v>
+        <v>0.02222766028806411</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.2969174752461</v>
+        <v>2.420762333333333</v>
       </c>
       <c r="N10">
-        <v>2.2969174752461</v>
+        <v>7.262287</v>
       </c>
       <c r="O10">
-        <v>0.08107627653434649</v>
+        <v>0.07993039924454561</v>
       </c>
       <c r="P10">
-        <v>0.08107627653434649</v>
+        <v>0.09036474745475948</v>
       </c>
       <c r="Q10">
-        <v>1.687534908180056</v>
+        <v>2.005100495363667</v>
       </c>
       <c r="R10">
-        <v>1.687534908180056</v>
+        <v>18.045904458273</v>
       </c>
       <c r="S10">
-        <v>0.001580819857731964</v>
+        <v>0.001673892567503725</v>
       </c>
       <c r="T10">
-        <v>0.001580819857731964</v>
+        <v>0.0020085969084411</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.73469548922268</v>
+        <v>0.8282930000000001</v>
       </c>
       <c r="H11">
-        <v>0.73469548922268</v>
+        <v>2.484879</v>
       </c>
       <c r="I11">
-        <v>0.01949793361640478</v>
+        <v>0.02094187672430462</v>
       </c>
       <c r="J11">
-        <v>0.01949793361640478</v>
+        <v>0.02222766028806411</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.95642863749525</v>
+        <v>2.988693333333333</v>
       </c>
       <c r="N11">
-        <v>2.95642863749525</v>
+        <v>8.96608</v>
       </c>
       <c r="O11">
-        <v>0.1043556106611728</v>
+        <v>0.09868273645182785</v>
       </c>
       <c r="P11">
-        <v>0.1043556106611728</v>
+        <v>0.111565069634286</v>
       </c>
       <c r="Q11">
-        <v>2.172074784176514</v>
+        <v>2.475513767146667</v>
       </c>
       <c r="R11">
-        <v>2.172074784176514</v>
+        <v>22.27962390432</v>
       </c>
       <c r="S11">
-        <v>0.002034718769170931</v>
+        <v>0.002066601701591221</v>
       </c>
       <c r="T11">
-        <v>0.002034718769170931</v>
+        <v>0.002479830467845126</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.73469548922268</v>
+        <v>0.8282930000000001</v>
       </c>
       <c r="H12">
-        <v>0.73469548922268</v>
+        <v>2.484879</v>
       </c>
       <c r="I12">
-        <v>0.01949793361640478</v>
+        <v>0.02094187672430462</v>
       </c>
       <c r="J12">
-        <v>0.01949793361640478</v>
+        <v>0.02222766028806411</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.84776526631231</v>
+        <v>5.072968666666666</v>
       </c>
       <c r="N12">
-        <v>4.84776526631231</v>
+        <v>15.218906</v>
       </c>
       <c r="O12">
-        <v>0.1711157503658355</v>
+        <v>0.1675027760050257</v>
       </c>
       <c r="P12">
-        <v>0.1711157503658355</v>
+        <v>0.1893690785323857</v>
       </c>
       <c r="Q12">
-        <v>3.561631273970038</v>
+        <v>4.201904435819333</v>
       </c>
       <c r="R12">
-        <v>3.561631273970038</v>
+        <v>37.817139922374</v>
       </c>
       <c r="S12">
-        <v>0.003336403541354351</v>
+        <v>0.003507822486076059</v>
       </c>
       <c r="T12">
-        <v>0.003336403541354351</v>
+        <v>0.004209231546681603</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.73469548922268</v>
+        <v>0.8282930000000001</v>
       </c>
       <c r="H13">
-        <v>0.73469548922268</v>
+        <v>2.484879</v>
       </c>
       <c r="I13">
-        <v>0.01949793361640478</v>
+        <v>0.02094187672430462</v>
       </c>
       <c r="J13">
-        <v>0.01949793361640478</v>
+        <v>0.02222766028806411</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.66397411923908</v>
+        <v>5.6583135</v>
       </c>
       <c r="N13">
-        <v>4.66397411923908</v>
+        <v>11.316627</v>
       </c>
       <c r="O13">
-        <v>0.1646283157821975</v>
+        <v>0.1868300951638797</v>
       </c>
       <c r="P13">
-        <v>0.1646283157821975</v>
+        <v>0.1408129616599719</v>
       </c>
       <c r="Q13">
-        <v>3.426600747256274</v>
+        <v>4.6867414638555</v>
       </c>
       <c r="R13">
-        <v>3.426600747256274</v>
+        <v>28.120448783133</v>
       </c>
       <c r="S13">
-        <v>0.003209911972501809</v>
+        <v>0.003912572821312071</v>
       </c>
       <c r="T13">
-        <v>0.003209911972501809</v>
+        <v>0.003129942675934051</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.596809883191639</v>
+        <v>10.755645</v>
       </c>
       <c r="H14">
-        <v>9.596809883191639</v>
+        <v>32.266935</v>
       </c>
       <c r="I14">
-        <v>0.254687778510389</v>
+        <v>0.2719368528774038</v>
       </c>
       <c r="J14">
-        <v>0.254687778510389</v>
+        <v>0.288633156671631</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.73653630557478</v>
+        <v>4.832948</v>
       </c>
       <c r="N14">
-        <v>4.73653630557478</v>
+        <v>9.665896</v>
       </c>
       <c r="O14">
-        <v>0.1671896058366691</v>
+        <v>0.1595776081975808</v>
       </c>
       <c r="P14">
-        <v>0.1671896058366691</v>
+        <v>0.1202728907524544</v>
       </c>
       <c r="Q14">
-        <v>45.45563842943606</v>
+        <v>51.98147299146001</v>
       </c>
       <c r="R14">
-        <v>45.45563842943606</v>
+        <v>311.8888379487601</v>
       </c>
       <c r="S14">
-        <v>0.04258114930056884</v>
+        <v>0.04339503256295352</v>
       </c>
       <c r="T14">
-        <v>0.04258114930056884</v>
+        <v>0.03471474411990313</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.596809883191639</v>
+        <v>10.755645</v>
       </c>
       <c r="H15">
-        <v>9.596809883191639</v>
+        <v>32.266935</v>
       </c>
       <c r="I15">
-        <v>0.254687778510389</v>
+        <v>0.2719368528774038</v>
       </c>
       <c r="J15">
-        <v>0.254687778510389</v>
+        <v>0.288633156671631</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.828705801557881</v>
+        <v>9.312192333333334</v>
       </c>
       <c r="N15">
-        <v>8.828705801557881</v>
+        <v>27.936577</v>
       </c>
       <c r="O15">
-        <v>0.3116344408197785</v>
+        <v>0.3074763849371404</v>
       </c>
       <c r="P15">
-        <v>0.3116344408197785</v>
+        <v>0.3476152519661426</v>
       </c>
       <c r="Q15">
-        <v>84.72741109218204</v>
+        <v>100.158634909055</v>
       </c>
       <c r="R15">
-        <v>84.72741109218204</v>
+        <v>901.427714181495</v>
       </c>
       <c r="S15">
-        <v>0.0793694834397167</v>
+        <v>0.08361416045392711</v>
       </c>
       <c r="T15">
-        <v>0.0793694834397167</v>
+        <v>0.1003332874821921</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.596809883191639</v>
+        <v>10.755645</v>
       </c>
       <c r="H16">
-        <v>9.596809883191639</v>
+        <v>32.266935</v>
       </c>
       <c r="I16">
-        <v>0.254687778510389</v>
+        <v>0.2719368528774038</v>
       </c>
       <c r="J16">
-        <v>0.254687778510389</v>
+        <v>0.288633156671631</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.2969174752461</v>
+        <v>2.420762333333333</v>
       </c>
       <c r="N16">
-        <v>2.2969174752461</v>
+        <v>7.262287</v>
       </c>
       <c r="O16">
-        <v>0.08107627653434649</v>
+        <v>0.07993039924454561</v>
       </c>
       <c r="P16">
-        <v>0.08107627653434649</v>
+        <v>0.09036474745475948</v>
       </c>
       <c r="Q16">
-        <v>22.04308032731736</v>
+        <v>26.036860286705</v>
       </c>
       <c r="R16">
-        <v>22.04308032731736</v>
+        <v>234.331742580345</v>
       </c>
       <c r="S16">
-        <v>0.02064913676042669</v>
+        <v>0.02173602121979614</v>
       </c>
       <c r="T16">
-        <v>0.02064913676042669</v>
+        <v>0.02608226230970196</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>9.596809883191639</v>
+        <v>10.755645</v>
       </c>
       <c r="H17">
-        <v>9.596809883191639</v>
+        <v>32.266935</v>
       </c>
       <c r="I17">
-        <v>0.254687778510389</v>
+        <v>0.2719368528774038</v>
       </c>
       <c r="J17">
-        <v>0.254687778510389</v>
+        <v>0.288633156671631</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.95642863749525</v>
+        <v>2.988693333333333</v>
       </c>
       <c r="N17">
-        <v>2.95642863749525</v>
+        <v>8.96608</v>
       </c>
       <c r="O17">
-        <v>0.1043556106611728</v>
+        <v>0.09868273645182785</v>
       </c>
       <c r="P17">
-        <v>0.1043556106611728</v>
+        <v>0.111565069634286</v>
       </c>
       <c r="Q17">
-        <v>28.37228356726521</v>
+        <v>32.1453245072</v>
       </c>
       <c r="R17">
-        <v>28.37228356726521</v>
+        <v>289.3079205648</v>
       </c>
       <c r="S17">
-        <v>0.02657809865438918</v>
+        <v>0.02683547278404032</v>
       </c>
       <c r="T17">
-        <v>0.02657809865438918</v>
+        <v>0.03220137822283429</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>9.596809883191639</v>
+        <v>10.755645</v>
       </c>
       <c r="H18">
-        <v>9.596809883191639</v>
+        <v>32.266935</v>
       </c>
       <c r="I18">
-        <v>0.254687778510389</v>
+        <v>0.2719368528774038</v>
       </c>
       <c r="J18">
-        <v>0.254687778510389</v>
+        <v>0.288633156671631</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.84776526631231</v>
+        <v>5.072968666666666</v>
       </c>
       <c r="N18">
-        <v>4.84776526631231</v>
+        <v>15.218906</v>
       </c>
       <c r="O18">
-        <v>0.1711157503658355</v>
+        <v>0.1675027760050257</v>
       </c>
       <c r="P18">
-        <v>0.1711157503658355</v>
+        <v>0.1893690785323857</v>
       </c>
       <c r="Q18">
-        <v>46.52308161913913</v>
+        <v>54.56305007479</v>
       </c>
       <c r="R18">
-        <v>46.52308161913913</v>
+        <v>491.06745067311</v>
       </c>
       <c r="S18">
-        <v>0.04358109032881292</v>
+        <v>0.04555017775503541</v>
       </c>
       <c r="T18">
-        <v>0.04358109032881292</v>
+        <v>0.05465819491280047</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>9.596809883191639</v>
+        <v>10.755645</v>
       </c>
       <c r="H19">
-        <v>9.596809883191639</v>
+        <v>32.266935</v>
       </c>
       <c r="I19">
-        <v>0.254687778510389</v>
+        <v>0.2719368528774038</v>
       </c>
       <c r="J19">
-        <v>0.254687778510389</v>
+        <v>0.288633156671631</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.66397411923908</v>
+        <v>5.6583135</v>
       </c>
       <c r="N19">
-        <v>4.66397411923908</v>
+        <v>11.316627</v>
       </c>
       <c r="O19">
-        <v>0.1646283157821975</v>
+        <v>0.1868300951638797</v>
       </c>
       <c r="P19">
-        <v>0.1646283157821975</v>
+        <v>0.1408129616599719</v>
       </c>
       <c r="Q19">
-        <v>44.75927292246362</v>
+        <v>60.85881130470751</v>
       </c>
       <c r="R19">
-        <v>44.75927292246362</v>
+        <v>365.1528678282451</v>
       </c>
       <c r="S19">
-        <v>0.0419288200264747</v>
+        <v>0.05080598810165131</v>
       </c>
       <c r="T19">
-        <v>0.0419288200264747</v>
+        <v>0.04064328962419904</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>16.1353745103769</v>
+        <v>16.464098</v>
       </c>
       <c r="H20">
-        <v>16.1353745103769</v>
+        <v>49.392294</v>
       </c>
       <c r="I20">
-        <v>0.428213410445758</v>
+        <v>0.4162646680496759</v>
       </c>
       <c r="J20">
-        <v>0.428213410445758</v>
+        <v>0.4418223711819316</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.73653630557478</v>
+        <v>4.832948</v>
       </c>
       <c r="N20">
-        <v>4.73653630557478</v>
+        <v>9.665896</v>
       </c>
       <c r="O20">
-        <v>0.1671896058366691</v>
+        <v>0.1595776081975808</v>
       </c>
       <c r="P20">
-        <v>0.1671896058366691</v>
+        <v>0.1202728907524544</v>
       </c>
       <c r="Q20">
-        <v>76.42578717244606</v>
+        <v>79.570129500904</v>
       </c>
       <c r="R20">
-        <v>76.42578717244606</v>
+        <v>477.420777005424</v>
       </c>
       <c r="S20">
-        <v>0.07159283130640211</v>
+        <v>0.06642652010452722</v>
       </c>
       <c r="T20">
-        <v>0.07159283130640211</v>
+        <v>0.05313925378115482</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>16.1353745103769</v>
+        <v>16.464098</v>
       </c>
       <c r="H21">
-        <v>16.1353745103769</v>
+        <v>49.392294</v>
       </c>
       <c r="I21">
-        <v>0.428213410445758</v>
+        <v>0.4162646680496759</v>
       </c>
       <c r="J21">
-        <v>0.428213410445758</v>
+        <v>0.4418223711819316</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>8.828705801557881</v>
+        <v>9.312192333333334</v>
       </c>
       <c r="N21">
-        <v>8.828705801557881</v>
+        <v>27.936577</v>
       </c>
       <c r="O21">
-        <v>0.3116344408197785</v>
+        <v>0.3074763849371404</v>
       </c>
       <c r="P21">
-        <v>0.3116344408197785</v>
+        <v>0.3476152519661426</v>
       </c>
       <c r="Q21">
-        <v>142.4544745500737</v>
+        <v>153.3168471708487</v>
       </c>
       <c r="R21">
-        <v>142.4544745500737</v>
+        <v>1379.851624537638</v>
       </c>
       <c r="S21">
-        <v>0.1334460467157941</v>
+        <v>0.1279915553089731</v>
       </c>
       <c r="T21">
-        <v>0.1334460467157941</v>
+        <v>0.1535841948826858</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>16.1353745103769</v>
+        <v>16.464098</v>
       </c>
       <c r="H22">
-        <v>16.1353745103769</v>
+        <v>49.392294</v>
       </c>
       <c r="I22">
-        <v>0.428213410445758</v>
+        <v>0.4162646680496759</v>
       </c>
       <c r="J22">
-        <v>0.428213410445758</v>
+        <v>0.4418223711819316</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.2969174752461</v>
+        <v>2.420762333333333</v>
       </c>
       <c r="N22">
-        <v>2.2969174752461</v>
+        <v>7.262287</v>
       </c>
       <c r="O22">
-        <v>0.08107627653434649</v>
+        <v>0.07993039924454561</v>
       </c>
       <c r="P22">
-        <v>0.08107627653434649</v>
+        <v>0.09036474745475948</v>
       </c>
       <c r="Q22">
-        <v>37.06162368252518</v>
+        <v>39.85566829070866</v>
       </c>
       <c r="R22">
-        <v>37.06162368252518</v>
+        <v>358.701014616378</v>
       </c>
       <c r="S22">
-        <v>0.03471794888101589</v>
+        <v>0.03327220110860885</v>
       </c>
       <c r="T22">
-        <v>0.03471794888101589</v>
+        <v>0.03992516699171825</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>16.1353745103769</v>
+        <v>16.464098</v>
       </c>
       <c r="H23">
-        <v>16.1353745103769</v>
+        <v>49.392294</v>
       </c>
       <c r="I23">
-        <v>0.428213410445758</v>
+        <v>0.4162646680496759</v>
       </c>
       <c r="J23">
-        <v>0.428213410445758</v>
+        <v>0.4418223711819316</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.95642863749525</v>
+        <v>2.988693333333333</v>
       </c>
       <c r="N23">
-        <v>2.95642863749525</v>
+        <v>8.96608</v>
       </c>
       <c r="O23">
-        <v>0.1043556106611728</v>
+        <v>0.09868273645182785</v>
       </c>
       <c r="P23">
-        <v>0.1043556106611728</v>
+        <v>0.111565069634286</v>
       </c>
       <c r="Q23">
-        <v>47.70308327918917</v>
+        <v>49.20613993194667</v>
       </c>
       <c r="R23">
-        <v>47.70308327918917</v>
+        <v>442.85525938752</v>
       </c>
       <c r="S23">
-        <v>0.04468647194037052</v>
+        <v>0.04107813653135377</v>
       </c>
       <c r="T23">
-        <v>0.04468647194037052</v>
+        <v>0.04929194360689754</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>16.1353745103769</v>
+        <v>16.464098</v>
       </c>
       <c r="H24">
-        <v>16.1353745103769</v>
+        <v>49.392294</v>
       </c>
       <c r="I24">
-        <v>0.428213410445758</v>
+        <v>0.4162646680496759</v>
       </c>
       <c r="J24">
-        <v>0.428213410445758</v>
+        <v>0.4418223711819316</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.84776526631231</v>
+        <v>5.072968666666666</v>
       </c>
       <c r="N24">
-        <v>4.84776526631231</v>
+        <v>15.218906</v>
       </c>
       <c r="O24">
-        <v>0.1711157503658355</v>
+        <v>0.1675027760050257</v>
       </c>
       <c r="P24">
-        <v>0.1711157503658355</v>
+        <v>0.1893690785323857</v>
       </c>
       <c r="Q24">
-        <v>78.22050811034612</v>
+        <v>83.52185327892933</v>
       </c>
       <c r="R24">
-        <v>78.22050811034612</v>
+        <v>751.6966795103639</v>
       </c>
       <c r="S24">
-        <v>0.07327405904513937</v>
+        <v>0.06972548745113126</v>
       </c>
       <c r="T24">
-        <v>0.07327405904513937</v>
+        <v>0.08366749530571606</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>16.1353745103769</v>
+        <v>16.464098</v>
       </c>
       <c r="H25">
-        <v>16.1353745103769</v>
+        <v>49.392294</v>
       </c>
       <c r="I25">
-        <v>0.428213410445758</v>
+        <v>0.4162646680496759</v>
       </c>
       <c r="J25">
-        <v>0.428213410445758</v>
+        <v>0.4418223711819316</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.66397411923908</v>
+        <v>5.6583135</v>
       </c>
       <c r="N25">
-        <v>4.66397411923908</v>
+        <v>11.316627</v>
       </c>
       <c r="O25">
-        <v>0.1646283157821975</v>
+        <v>0.1868300951638797</v>
       </c>
       <c r="P25">
-        <v>0.1646283157821975</v>
+        <v>0.1408129616599719</v>
       </c>
       <c r="Q25">
-        <v>75.25496912062779</v>
+        <v>93.159027978723</v>
       </c>
       <c r="R25">
-        <v>75.25496912062779</v>
+        <v>558.954167872338</v>
       </c>
       <c r="S25">
-        <v>0.07049605255703599</v>
+        <v>0.07777076754508176</v>
       </c>
       <c r="T25">
-        <v>0.07049605255703599</v>
+        <v>0.06221431661375921</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>4.48115254148327</v>
+        <v>4.640172333333333</v>
       </c>
       <c r="H26">
-        <v>4.48115254148327</v>
+        <v>13.920517</v>
       </c>
       <c r="I26">
-        <v>0.1189243925687725</v>
+        <v>0.1173182883160857</v>
       </c>
       <c r="J26">
-        <v>0.1189243925687725</v>
+        <v>0.1245213641832143</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.73653630557478</v>
+        <v>4.832948</v>
       </c>
       <c r="N26">
-        <v>4.73653630557478</v>
+        <v>9.665896</v>
       </c>
       <c r="O26">
-        <v>0.1671896058366691</v>
+        <v>0.1595776081975808</v>
       </c>
       <c r="P26">
-        <v>0.1671896058366691</v>
+        <v>0.1202728907524544</v>
       </c>
       <c r="Q26">
-        <v>21.2251417035542</v>
+        <v>22.42571159803867</v>
       </c>
       <c r="R26">
-        <v>21.2251417035542</v>
+        <v>134.554269588232</v>
       </c>
       <c r="S26">
-        <v>0.01988292231793837</v>
+        <v>0.01872137184731515</v>
       </c>
       <c r="T26">
-        <v>0.01988292231793837</v>
+        <v>0.01497654443075432</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>4.48115254148327</v>
+        <v>4.640172333333333</v>
       </c>
       <c r="H27">
-        <v>4.48115254148327</v>
+        <v>13.920517</v>
       </c>
       <c r="I27">
-        <v>0.1189243925687725</v>
+        <v>0.1173182883160857</v>
       </c>
       <c r="J27">
-        <v>0.1189243925687725</v>
+        <v>0.1245213641832143</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>8.828705801557881</v>
+        <v>9.312192333333334</v>
       </c>
       <c r="N27">
-        <v>8.828705801557881</v>
+        <v>27.936577</v>
       </c>
       <c r="O27">
-        <v>0.3116344408197785</v>
+        <v>0.3074763849371404</v>
       </c>
       <c r="P27">
-        <v>0.3116344408197785</v>
+        <v>0.3476152519661426</v>
       </c>
       <c r="Q27">
-        <v>39.56277744065918</v>
+        <v>43.21017722781211</v>
       </c>
       <c r="R27">
-        <v>39.56277744065918</v>
+        <v>388.891595050309</v>
       </c>
       <c r="S27">
-        <v>0.03706093657800123</v>
+        <v>0.03607260317844319</v>
       </c>
       <c r="T27">
-        <v>0.03706093657800123</v>
+        <v>0.04328552538571584</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>4.48115254148327</v>
+        <v>4.640172333333333</v>
       </c>
       <c r="H28">
-        <v>4.48115254148327</v>
+        <v>13.920517</v>
       </c>
       <c r="I28">
-        <v>0.1189243925687725</v>
+        <v>0.1173182883160857</v>
       </c>
       <c r="J28">
-        <v>0.1189243925687725</v>
+        <v>0.1245213641832143</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>2.2969174752461</v>
+        <v>2.420762333333333</v>
       </c>
       <c r="N28">
-        <v>2.2969174752461</v>
+        <v>7.262287</v>
       </c>
       <c r="O28">
-        <v>0.08107627653434649</v>
+        <v>0.07993039924454561</v>
       </c>
       <c r="P28">
-        <v>0.08107627653434649</v>
+        <v>0.09036474745475948</v>
       </c>
       <c r="Q28">
-        <v>10.2928375817764</v>
+        <v>11.23275440470878</v>
       </c>
       <c r="R28">
-        <v>10.2928375817764</v>
+        <v>101.094789642379</v>
       </c>
       <c r="S28">
-        <v>0.009641946938584977</v>
+        <v>0.00937729762379144</v>
       </c>
       <c r="T28">
-        <v>0.009641946938584977</v>
+        <v>0.01125234162713829</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>4.48115254148327</v>
+        <v>4.640172333333333</v>
       </c>
       <c r="H29">
-        <v>4.48115254148327</v>
+        <v>13.920517</v>
       </c>
       <c r="I29">
-        <v>0.1189243925687725</v>
+        <v>0.1173182883160857</v>
       </c>
       <c r="J29">
-        <v>0.1189243925687725</v>
+        <v>0.1245213641832143</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>2.95642863749525</v>
+        <v>2.988693333333333</v>
       </c>
       <c r="N29">
-        <v>2.95642863749525</v>
+        <v>8.96608</v>
       </c>
       <c r="O29">
-        <v>0.1043556106611728</v>
+        <v>0.09868273645182785</v>
       </c>
       <c r="P29">
-        <v>0.1043556106611728</v>
+        <v>0.111565069634286</v>
       </c>
       <c r="Q29">
-        <v>13.24820770262576</v>
+        <v>13.86805211815111</v>
       </c>
       <c r="R29">
-        <v>13.24820770262576</v>
+        <v>124.81246906336</v>
       </c>
       <c r="S29">
-        <v>0.0124104276090233</v>
+        <v>0.01157728972687584</v>
       </c>
       <c r="T29">
-        <v>0.0124104276090233</v>
+        <v>0.01389223466605658</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>4.48115254148327</v>
+        <v>4.640172333333333</v>
       </c>
       <c r="H30">
-        <v>4.48115254148327</v>
+        <v>13.920517</v>
       </c>
       <c r="I30">
-        <v>0.1189243925687725</v>
+        <v>0.1173182883160857</v>
       </c>
       <c r="J30">
-        <v>0.1189243925687725</v>
+        <v>0.1245213641832143</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>4.84776526631231</v>
+        <v>5.072968666666666</v>
       </c>
       <c r="N30">
-        <v>4.84776526631231</v>
+        <v>15.218906</v>
       </c>
       <c r="O30">
-        <v>0.1711157503658355</v>
+        <v>0.1675027760050257</v>
       </c>
       <c r="P30">
-        <v>0.1711157503658355</v>
+        <v>0.1893690785323857</v>
       </c>
       <c r="Q30">
-        <v>21.72357564364973</v>
+        <v>23.53944885493355</v>
       </c>
       <c r="R30">
-        <v>21.72357564364973</v>
+        <v>211.855039694402</v>
       </c>
       <c r="S30">
-        <v>0.02034983667120669</v>
+        <v>0.01965113896910234</v>
       </c>
       <c r="T30">
-        <v>0.02034983667120669</v>
+        <v>0.0235804959929709</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>4.48115254148327</v>
+        <v>4.640172333333333</v>
       </c>
       <c r="H31">
-        <v>4.48115254148327</v>
+        <v>13.920517</v>
       </c>
       <c r="I31">
-        <v>0.1189243925687725</v>
+        <v>0.1173182883160857</v>
       </c>
       <c r="J31">
-        <v>0.1189243925687725</v>
+        <v>0.1245213641832143</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>4.66397411923908</v>
+        <v>5.6583135</v>
       </c>
       <c r="N31">
-        <v>4.66397411923908</v>
+        <v>11.316627</v>
       </c>
       <c r="O31">
-        <v>0.1646283157821975</v>
+        <v>0.1868300951638797</v>
       </c>
       <c r="P31">
-        <v>0.1646283157821975</v>
+        <v>0.1408129616599719</v>
       </c>
       <c r="Q31">
-        <v>20.8999794778404</v>
+        <v>26.2555497560265</v>
       </c>
       <c r="R31">
-        <v>20.8999794778404</v>
+        <v>157.533298536159</v>
       </c>
       <c r="S31">
-        <v>0.01957832245401789</v>
+        <v>0.02191858697055777</v>
       </c>
       <c r="T31">
-        <v>0.01957832245401789</v>
+        <v>0.01753422208057835</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.524435680788407</v>
+        <v>0.6398845000000001</v>
       </c>
       <c r="H32">
-        <v>0.524435680788407</v>
+        <v>1.279769</v>
       </c>
       <c r="I32">
-        <v>0.01391789148032617</v>
+        <v>0.01617831168052042</v>
       </c>
       <c r="J32">
-        <v>0.01391789148032617</v>
+        <v>0.01144774879549287</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>4.73653630557478</v>
+        <v>4.832948</v>
       </c>
       <c r="N32">
-        <v>4.73653630557478</v>
+        <v>9.665896</v>
       </c>
       <c r="O32">
-        <v>0.1671896058366691</v>
+        <v>0.1595776081975808</v>
       </c>
       <c r="P32">
-        <v>0.1671896058366691</v>
+        <v>0.1202728907524544</v>
       </c>
       <c r="Q32">
-        <v>2.484008641993116</v>
+        <v>3.092528514506</v>
       </c>
       <c r="R32">
-        <v>2.484008641993116</v>
+        <v>12.370114058024</v>
       </c>
       <c r="S32">
-        <v>0.002326926790673268</v>
+        <v>0.002581696282652433</v>
       </c>
       <c r="T32">
-        <v>0.002326926790673268</v>
+        <v>0.001376853840241855</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.524435680788407</v>
+        <v>0.6398845000000001</v>
       </c>
       <c r="H33">
-        <v>0.524435680788407</v>
+        <v>1.279769</v>
       </c>
       <c r="I33">
-        <v>0.01391789148032617</v>
+        <v>0.01617831168052042</v>
       </c>
       <c r="J33">
-        <v>0.01391789148032617</v>
+        <v>0.01144774879549287</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>8.828705801557881</v>
+        <v>9.312192333333334</v>
       </c>
       <c r="N33">
-        <v>8.828705801557881</v>
+        <v>27.936577</v>
       </c>
       <c r="O33">
-        <v>0.3116344408197785</v>
+        <v>0.3074763849371404</v>
       </c>
       <c r="P33">
-        <v>0.3116344408197785</v>
+        <v>0.3476152519661426</v>
       </c>
       <c r="Q33">
-        <v>4.630088337520565</v>
+        <v>5.958727535118834</v>
       </c>
       <c r="R33">
-        <v>4.630088337520565</v>
+        <v>35.752365210713</v>
       </c>
       <c r="S33">
-        <v>0.004337294328861805</v>
+        <v>0.004974448789912732</v>
       </c>
       <c r="T33">
-        <v>0.004337294328861805</v>
+        <v>0.003979412081990359</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.524435680788407</v>
+        <v>0.6398845000000001</v>
       </c>
       <c r="H34">
-        <v>0.524435680788407</v>
+        <v>1.279769</v>
       </c>
       <c r="I34">
-        <v>0.01391789148032617</v>
+        <v>0.01617831168052042</v>
       </c>
       <c r="J34">
-        <v>0.01391789148032617</v>
+        <v>0.01144774879549287</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>2.2969174752461</v>
+        <v>2.420762333333333</v>
       </c>
       <c r="N34">
-        <v>2.2969174752461</v>
+        <v>7.262287</v>
       </c>
       <c r="O34">
-        <v>0.08107627653434649</v>
+        <v>0.07993039924454561</v>
       </c>
       <c r="P34">
-        <v>0.08107627653434649</v>
+        <v>0.09036474745475948</v>
       </c>
       <c r="Q34">
-        <v>1.204585479845477</v>
+        <v>1.549008295283834</v>
       </c>
       <c r="R34">
-        <v>1.204585479845477</v>
+        <v>9.294049771703001</v>
       </c>
       <c r="S34">
-        <v>0.001128410818433949</v>
+        <v>0.001293138911726693</v>
       </c>
       <c r="T34">
-        <v>0.001128410818433949</v>
+        <v>0.00103447292883024</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.524435680788407</v>
+        <v>0.6398845000000001</v>
       </c>
       <c r="H35">
-        <v>0.524435680788407</v>
+        <v>1.279769</v>
       </c>
       <c r="I35">
-        <v>0.01391789148032617</v>
+        <v>0.01617831168052042</v>
       </c>
       <c r="J35">
-        <v>0.01391789148032617</v>
+        <v>0.01144774879549287</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>2.95642863749525</v>
+        <v>2.988693333333333</v>
       </c>
       <c r="N35">
-        <v>2.95642863749525</v>
+        <v>8.96608</v>
       </c>
       <c r="O35">
-        <v>0.1043556106611728</v>
+        <v>0.09868273645182785</v>
       </c>
       <c r="P35">
-        <v>0.1043556106611728</v>
+        <v>0.111565069634286</v>
       </c>
       <c r="Q35">
-        <v>1.550456665207164</v>
+        <v>1.912418539253334</v>
       </c>
       <c r="R35">
-        <v>1.550456665207164</v>
+        <v>11.47451123552</v>
       </c>
       <c r="S35">
-        <v>0.001452410064545372</v>
+        <v>0.001596520067804325</v>
       </c>
       <c r="T35">
-        <v>0.001452410064545372</v>
+        <v>0.001277168891524975</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.524435680788407</v>
+        <v>0.6398845000000001</v>
       </c>
       <c r="H36">
-        <v>0.524435680788407</v>
+        <v>1.279769</v>
       </c>
       <c r="I36">
-        <v>0.01391789148032617</v>
+        <v>0.01617831168052042</v>
       </c>
       <c r="J36">
-        <v>0.01391789148032617</v>
+        <v>0.01144774879549287</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>4.84776526631231</v>
+        <v>5.072968666666666</v>
       </c>
       <c r="N36">
-        <v>4.84776526631231</v>
+        <v>15.218906</v>
       </c>
       <c r="O36">
-        <v>0.1711157503658355</v>
+        <v>0.1675027760050257</v>
       </c>
       <c r="P36">
-        <v>0.1711157503658355</v>
+        <v>0.1893690785323857</v>
       </c>
       <c r="Q36">
-        <v>2.542341077740889</v>
+        <v>3.246114018785667</v>
       </c>
       <c r="R36">
-        <v>2.542341077740889</v>
+        <v>19.476684112714</v>
       </c>
       <c r="S36">
-        <v>0.002381570444166281</v>
+        <v>0.002709912117561704</v>
       </c>
       <c r="T36">
-        <v>0.002381570444166281</v>
+        <v>0.002167849640672712</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.524435680788407</v>
+        <v>0.6398845000000001</v>
       </c>
       <c r="H37">
-        <v>0.524435680788407</v>
+        <v>1.279769</v>
       </c>
       <c r="I37">
-        <v>0.01391789148032617</v>
+        <v>0.01617831168052042</v>
       </c>
       <c r="J37">
-        <v>0.01391789148032617</v>
+        <v>0.01144774879549287</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>4.66397411923908</v>
+        <v>5.6583135</v>
       </c>
       <c r="N37">
-        <v>4.66397411923908</v>
+        <v>11.316627</v>
       </c>
       <c r="O37">
-        <v>0.1646283157821975</v>
+        <v>0.1868300951638797</v>
       </c>
       <c r="P37">
-        <v>0.1646283157821975</v>
+        <v>0.1408129616599719</v>
       </c>
       <c r="Q37">
-        <v>2.445954442402658</v>
+        <v>3.62066710479075</v>
       </c>
       <c r="R37">
-        <v>2.445954442402658</v>
+        <v>14.482668419163</v>
       </c>
       <c r="S37">
-        <v>0.002291279033645492</v>
+        <v>0.003022595510862537</v>
       </c>
       <c r="T37">
-        <v>0.002291279033645492</v>
+        <v>0.001611991412232727</v>
       </c>
     </row>
   </sheetData>
